--- a/Dingle.xlsx
+++ b/Dingle.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a17b7ba9f4d0940d/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b514904f9cb3b51/Documents/GitHub/QuayVerde/Synchronicity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{842EC222-9838-4E1B-BFC6-F3624A750FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{842EC222-9838-4E1B-BFC6-F3624A750FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1211062-5E90-4ACA-B50A-E4B946A8406D}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1230" windowWidth="16980" windowHeight="14970" xr2:uid="{02CF4507-D80A-48EC-BB68-4441DCFBB16E}"/>
+    <workbookView xWindow="1530" yWindow="465" windowWidth="27195" windowHeight="14925" xr2:uid="{02CF4507-D80A-48EC-BB68-4441DCFBB16E}"/>
   </bookViews>
   <sheets>
     <sheet name="Dingle Rd" sheetId="1" r:id="rId1"/>
     <sheet name="Bread" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t xml:space="preserve">Ashford </t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>Northamptonshire</t>
+  </si>
+  <si>
+    <t>The Dingle Peninsula ~ Corca Dhuibhne Official Tourism website by DPTA (dingle-peninsula.ie)</t>
   </si>
 </sst>
 </file>
@@ -571,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50889372-72A1-44F4-BB89-D33A77F402FE}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,9 +586,10 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -605,7 +609,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -619,7 +623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -636,7 +640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -650,7 +654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -664,7 +668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -681,7 +685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -698,7 +702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -712,7 +716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -729,7 +733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -743,7 +747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -760,7 +764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -774,7 +778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -796,8 +800,11 @@
       <c r="G13" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -814,7 +821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -831,7 +838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -874,6 +881,7 @@
   <hyperlinks>
     <hyperlink ref="G13" r:id="rId1" display="https://www.liverpoolecho.co.uk/all-about/dingle" xr:uid="{D51CE238-BA3F-4F7A-8BA7-6162D124DDBE}"/>
     <hyperlink ref="F13" r:id="rId2" display="https://en.wikipedia.org/wiki/Bread_(TV_series)" xr:uid="{26388BA4-9464-4985-B1E3-05678F9564A7}"/>
+    <hyperlink ref="H13" r:id="rId3" display="https://www.dingle-peninsula.ie/" xr:uid="{F330A07F-B06B-42B6-9D96-C5A8168BC914}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
